--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fbn1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fbn1-Itgb1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>8.970950666666665</v>
+        <v>21.08397466666667</v>
       </c>
       <c r="H2">
-        <v>26.912852</v>
+        <v>63.251924</v>
       </c>
       <c r="I2">
-        <v>0.02838798528205506</v>
+        <v>0.06331801375981215</v>
       </c>
       <c r="J2">
-        <v>0.02838798528205506</v>
+        <v>0.06331801375981214</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N2">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O2">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P2">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q2">
-        <v>887.6461796322825</v>
+        <v>3544.423340713708</v>
       </c>
       <c r="R2">
-        <v>7988.815616690543</v>
+        <v>31899.81006642336</v>
       </c>
       <c r="S2">
-        <v>0.005955826828620886</v>
+        <v>0.01889524932758904</v>
       </c>
       <c r="T2">
-        <v>0.005955826828620887</v>
+        <v>0.01889524932758904</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>8.970950666666665</v>
+        <v>21.08397466666667</v>
       </c>
       <c r="H3">
-        <v>26.912852</v>
+        <v>63.251924</v>
       </c>
       <c r="I3">
-        <v>0.02838798528205506</v>
+        <v>0.06331801375981215</v>
       </c>
       <c r="J3">
-        <v>0.02838798528205506</v>
+        <v>0.06331801375981214</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P3">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q3">
-        <v>1462.320898524707</v>
+        <v>3436.819343304696</v>
       </c>
       <c r="R3">
-        <v>13160.88808672236</v>
+        <v>30931.37408974226</v>
       </c>
       <c r="S3">
-        <v>0.009811713540066594</v>
+        <v>0.01832161458810019</v>
       </c>
       <c r="T3">
-        <v>0.009811713540066595</v>
+        <v>0.01832161458810018</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>8.970950666666665</v>
+        <v>21.08397466666667</v>
       </c>
       <c r="H4">
-        <v>26.912852</v>
+        <v>63.251924</v>
       </c>
       <c r="I4">
-        <v>0.02838798528205506</v>
+        <v>0.06331801375981215</v>
       </c>
       <c r="J4">
-        <v>0.02838798528205506</v>
+        <v>0.06331801375981214</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N4">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O4">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P4">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q4">
-        <v>1294.264141438698</v>
+        <v>3499.803381350573</v>
       </c>
       <c r="R4">
-        <v>11648.37727294828</v>
+        <v>31498.23043215516</v>
       </c>
       <c r="S4">
-        <v>0.008684105529633293</v>
+        <v>0.01865738122434392</v>
       </c>
       <c r="T4">
-        <v>0.008684105529633295</v>
+        <v>0.01865738122434391</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>8.970950666666665</v>
+        <v>21.08397466666667</v>
       </c>
       <c r="H5">
-        <v>26.912852</v>
+        <v>63.251924</v>
       </c>
       <c r="I5">
-        <v>0.02838798528205506</v>
+        <v>0.06331801375981215</v>
       </c>
       <c r="J5">
-        <v>0.02838798528205506</v>
+        <v>0.06331801375981214</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N5">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q5">
-        <v>586.6652466987379</v>
+        <v>1396.322788940064</v>
       </c>
       <c r="R5">
-        <v>5279.98722028864</v>
+        <v>12566.90510046057</v>
       </c>
       <c r="S5">
-        <v>0.003936339383734287</v>
+        <v>0.007443768619779012</v>
       </c>
       <c r="T5">
-        <v>0.003936339383734288</v>
+        <v>0.00744376861977901</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>816.6423950000001</v>
       </c>
       <c r="I6">
-        <v>0.8614037742994388</v>
+        <v>0.8174956765497907</v>
       </c>
       <c r="J6">
-        <v>0.8614037742994389</v>
+        <v>0.8174956765497907</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N6">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O6">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P6">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q6">
-        <v>26934.69655492133</v>
+        <v>45761.8706721766</v>
       </c>
       <c r="R6">
-        <v>242412.268994292</v>
+        <v>411856.8360495894</v>
       </c>
       <c r="S6">
-        <v>0.1807233468058389</v>
+        <v>0.2439556093978177</v>
       </c>
       <c r="T6">
-        <v>0.180723346805839</v>
+        <v>0.2439556093978177</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>816.6423950000001</v>
       </c>
       <c r="I7">
-        <v>0.8614037742994388</v>
+        <v>0.8174956765497907</v>
       </c>
       <c r="J7">
-        <v>0.8614037742994389</v>
+        <v>0.8174956765497907</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P7">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q7">
         <v>44372.6008982537</v>
@@ -883,10 +883,10 @@
         <v>399353.4080842833</v>
       </c>
       <c r="S7">
-        <v>0.297726203243488</v>
+        <v>0.2365494402588145</v>
       </c>
       <c r="T7">
-        <v>0.2977262032434881</v>
+        <v>0.2365494402588145</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>816.6423950000001</v>
       </c>
       <c r="I8">
-        <v>0.8614037742994388</v>
+        <v>0.8174956765497907</v>
       </c>
       <c r="J8">
-        <v>0.8614037742994389</v>
+        <v>0.8174956765497907</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N8">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O8">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P8">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q8">
-        <v>39273.09406773823</v>
+        <v>45185.78463123478</v>
       </c>
       <c r="R8">
-        <v>353457.8466096441</v>
+        <v>406672.0616811131</v>
       </c>
       <c r="S8">
-        <v>0.2635101154702028</v>
+        <v>0.2408845063349574</v>
       </c>
       <c r="T8">
-        <v>0.2635101154702028</v>
+        <v>0.2408845063349574</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>816.6423950000001</v>
       </c>
       <c r="I9">
-        <v>0.8614037742994388</v>
+        <v>0.8174956765497907</v>
       </c>
       <c r="J9">
-        <v>0.8614037742994389</v>
+        <v>0.8174956765497907</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N9">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q9">
-        <v>17801.74439064738</v>
+        <v>18027.85297966736</v>
       </c>
       <c r="R9">
-        <v>160215.6995158264</v>
+        <v>162250.6768170062</v>
       </c>
       <c r="S9">
-        <v>0.119444108779909</v>
+        <v>0.09610612055820114</v>
       </c>
       <c r="T9">
-        <v>0.1194441087799091</v>
+        <v>0.09610612055820114</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>34.42132633333333</v>
+        <v>39.60693866666666</v>
       </c>
       <c r="H10">
-        <v>103.263979</v>
+        <v>118.820816</v>
       </c>
       <c r="I10">
-        <v>0.1089240306459696</v>
+        <v>0.1189449677837485</v>
       </c>
       <c r="J10">
-        <v>0.1089240306459696</v>
+        <v>0.1189449677837485</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N10">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O10">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P10">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q10">
-        <v>3405.877476418265</v>
+        <v>6658.315620455256</v>
       </c>
       <c r="R10">
-        <v>30652.89728776439</v>
+        <v>59924.84058409731</v>
       </c>
       <c r="S10">
-        <v>0.02285236720947835</v>
+        <v>0.03549534625425118</v>
       </c>
       <c r="T10">
-        <v>0.02285236720947836</v>
+        <v>0.03549534625425118</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>34.42132633333333</v>
+        <v>39.60693866666666</v>
       </c>
       <c r="H11">
-        <v>103.263979</v>
+        <v>118.820816</v>
       </c>
       <c r="I11">
-        <v>0.1089240306459696</v>
+        <v>0.1189449677837485</v>
       </c>
       <c r="J11">
-        <v>0.1089240306459696</v>
+        <v>0.1189449677837485</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>489.018707</v>
       </c>
       <c r="O11">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P11">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q11">
-        <v>5610.890832250572</v>
+        <v>6456.177978333879</v>
       </c>
       <c r="R11">
-        <v>50498.01749025516</v>
+        <v>58105.60180500491</v>
       </c>
       <c r="S11">
-        <v>0.03764731366840841</v>
+        <v>0.03441775456183069</v>
       </c>
       <c r="T11">
-        <v>0.03764731366840841</v>
+        <v>0.03441775456183068</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>34.42132633333333</v>
+        <v>39.60693866666666</v>
       </c>
       <c r="H12">
-        <v>103.263979</v>
+        <v>118.820816</v>
       </c>
       <c r="I12">
-        <v>0.1089240306459696</v>
+        <v>0.1189449677837485</v>
       </c>
       <c r="J12">
-        <v>0.1089240306459696</v>
+        <v>0.1189449677837485</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N12">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O12">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P12">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q12">
-        <v>4966.061015085978</v>
+        <v>6574.495561773493</v>
       </c>
       <c r="R12">
-        <v>44694.54913577381</v>
+        <v>59170.46005596144</v>
       </c>
       <c r="S12">
-        <v>0.03332070830121744</v>
+        <v>0.0350485032123232</v>
       </c>
       <c r="T12">
-        <v>0.03332070830121745</v>
+        <v>0.0350485032123232</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>34.42132633333333</v>
+        <v>39.60693866666666</v>
       </c>
       <c r="H13">
-        <v>103.263979</v>
+        <v>118.820816</v>
       </c>
       <c r="I13">
-        <v>0.1089240306459696</v>
+        <v>0.1189449677837485</v>
       </c>
       <c r="J13">
-        <v>0.1089240306459696</v>
+        <v>0.1189449677837485</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N13">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q13">
-        <v>2251.02072850281</v>
+        <v>2623.038204833961</v>
       </c>
       <c r="R13">
-        <v>20259.18655652528</v>
+        <v>23607.34384350565</v>
       </c>
       <c r="S13">
-        <v>0.01510364146686536</v>
+        <v>0.01398336375534341</v>
       </c>
       <c r="T13">
-        <v>0.01510364146686537</v>
+        <v>0.01398336375534341</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.405826</v>
+        <v>0.08036333333333333</v>
       </c>
       <c r="H14">
-        <v>1.217478</v>
+        <v>0.24109</v>
       </c>
       <c r="I14">
-        <v>0.001284209772536402</v>
+        <v>0.0002413419066486121</v>
       </c>
       <c r="J14">
-        <v>0.001284209772536401</v>
+        <v>0.0002413419066486121</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N14">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O14">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P14">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q14">
-        <v>40.155153214024</v>
+        <v>13.50986609059778</v>
       </c>
       <c r="R14">
-        <v>361.396378926216</v>
+        <v>121.58879481538</v>
       </c>
       <c r="S14">
-        <v>0.0002694284550613848</v>
+        <v>7.202082359405288E-05</v>
       </c>
       <c r="T14">
-        <v>0.0002694284550613848</v>
+        <v>7.202082359405289E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.405826</v>
+        <v>0.08036333333333333</v>
       </c>
       <c r="H15">
-        <v>1.217478</v>
+        <v>0.24109</v>
       </c>
       <c r="I15">
-        <v>0.001284209772536402</v>
+        <v>0.0002413419066486121</v>
       </c>
       <c r="J15">
-        <v>0.001284209772536401</v>
+        <v>0.0002413419066486121</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>489.018707</v>
       </c>
       <c r="O15">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P15">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q15">
-        <v>66.15216859566065</v>
+        <v>13.09972445229222</v>
       </c>
       <c r="R15">
-        <v>595.3695173609459</v>
+        <v>117.89752007063</v>
       </c>
       <c r="S15">
-        <v>0.0004438602559599851</v>
+        <v>6.983436679404525E-05</v>
       </c>
       <c r="T15">
-        <v>0.0004438602559599851</v>
+        <v>6.983436679404525E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.405826</v>
+        <v>0.08036333333333333</v>
       </c>
       <c r="H16">
-        <v>1.217478</v>
+        <v>0.24109</v>
       </c>
       <c r="I16">
-        <v>0.001284209772536402</v>
+        <v>0.0002413419066486121</v>
       </c>
       <c r="J16">
-        <v>0.001284209772536401</v>
+        <v>0.0002413419066486121</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N16">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O16">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P16">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q16">
-        <v>58.54965198004666</v>
+        <v>13.33979338256666</v>
       </c>
       <c r="R16">
-        <v>526.9468678204199</v>
+        <v>120.0581404431</v>
       </c>
       <c r="S16">
-        <v>0.0003928497593642949</v>
+        <v>7.111416941842075E-05</v>
       </c>
       <c r="T16">
-        <v>0.0003928497593642949</v>
+        <v>7.111416941842075E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.405826</v>
+        <v>0.08036333333333333</v>
       </c>
       <c r="H17">
-        <v>1.217478</v>
+        <v>0.24109</v>
       </c>
       <c r="I17">
-        <v>0.001284209772536402</v>
+        <v>0.0002413419066486121</v>
       </c>
       <c r="J17">
-        <v>0.001284209772536401</v>
+        <v>0.0002413419066486121</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N17">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q17">
-        <v>26.53944038410667</v>
+        <v>5.322201126807778</v>
       </c>
       <c r="R17">
-        <v>238.85496345696</v>
+        <v>47.89981014127</v>
       </c>
       <c r="S17">
-        <v>0.0001780713021507365</v>
+        <v>2.837254684209324E-05</v>
       </c>
       <c r="T17">
-        <v>0.0001780713021507365</v>
+        <v>2.837254684209324E-05</v>
       </c>
     </row>
   </sheetData>
